--- a/statistiques/exercice 2-3.xlsx
+++ b/statistiques/exercice 2-3.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -74,11 +74,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -98,6 +99,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF2A6099"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -144,16 +151,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,7 +240,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -285,6 +296,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -299,9 +311,10 @@
             </c:extLst>
           </c:dLbls>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$C$7:$C$14</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -327,8 +340,8 @@
                 <c:pt idx="7">
                   <c:v>1000</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -365,17 +378,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34296313"/>
-        <c:axId val="16299105"/>
+        <c:axId val="90249732"/>
+        <c:axId val="1591394"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34296313"/>
+        <c:axId val="90249732"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -397,12 +410,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16299105"/>
+        <c:crossAx val="1591394"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16299105"/>
+        <c:axId val="1591394"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,7 +430,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -439,7 +452,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34296313"/>
+        <c:crossAx val="90249732"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -466,7 +479,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -693,7 +706,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
@@ -709,8 +722,10 @@
             </c:marker>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
                 <a:lstStyle/>
@@ -817,17 +832,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="76667686"/>
-        <c:axId val="78800546"/>
+        <c:axId val="51384960"/>
+        <c:axId val="91536619"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76667686"/>
+        <c:axId val="51384960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -849,12 +864,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78800546"/>
+        <c:crossAx val="91536619"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78800546"/>
+        <c:axId val="91536619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +884,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -891,9 +906,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76667686"/>
+        <c:crossAx val="51384960"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -950,9 +965,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>359280</xdr:colOff>
+      <xdr:colOff>358920</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -961,7 +976,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="556200" y="3077640"/>
-        <a:ext cx="4847040" cy="2323440"/>
+        <a:ext cx="4845960" cy="2323080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -980,9 +995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>524880</xdr:colOff>
+      <xdr:colOff>524520</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -991,7 +1006,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="621720" y="5800320"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5758920" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1004,652 +1019,758 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B6:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.78"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="str">
+      <c r="B7" s="1" t="str">
         <f aca="false">"[" &amp;C7&amp;";"&amp;D7&amp;"["</f>
         <v>[0;50[</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <f aca="false">H7/G7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <f aca="false">D7-C7</f>
         <v>50</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
         <f aca="false">C7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <f aca="false">(D7-C7)/2 +C7</f>
         <v>25</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <f aca="false">H7*E7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <f aca="false">H7*E7^2</f>
         <v>0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <f aca="false">ABS(J7-L17)*H7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="str">
+      <c r="B8" s="1" t="str">
         <f aca="false">"[" &amp;C8&amp;";"&amp;D8&amp;"["</f>
         <v>[50;100[</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <f aca="false">H8/G8</f>
         <v>0.6</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <f aca="false">D8-C8</f>
         <v>50</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="3" t="n">
         <f aca="false">I7+H7</f>
         <v>0</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <f aca="false">(D8-C8)/2 +C8</f>
         <v>75</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <f aca="false">H8*E8</f>
         <v>2250</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <f aca="false">H8*E8^2</f>
         <v>168750</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="1" t="n">
         <f aca="false">ABS(J8-$L$17)*H8</f>
         <v>6195.83333333333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="str">
+      <c r="B9" s="1" t="str">
         <f aca="false">"[" &amp;C9&amp;";"&amp;D9&amp;"["</f>
         <v>[100;140[</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <f aca="false">H9/G9</f>
         <v>1</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <f aca="false">D9-C9</f>
         <v>40</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3" t="n">
         <f aca="false">I8+H8</f>
         <v>30</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <f aca="false">(D9-C9)/2 +C9</f>
         <v>120</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <f aca="false">H9*E9</f>
         <v>4800</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <f aca="false">H9*E9^2</f>
         <v>576000</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <f aca="false">ABS(J9-$L$17)*H9</f>
         <v>6461.11111111111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="str">
+      <c r="B10" s="1" t="str">
         <f aca="false">"[" &amp;C10&amp;";"&amp;D10&amp;"["</f>
         <v>[140;200[</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <f aca="false">H10/G10</f>
         <v>1.5</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <f aca="false">D10-C10</f>
         <v>60</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="3" t="n">
         <f aca="false">I9+H9</f>
         <v>70</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <f aca="false">(D10-C10)/2 +C10</f>
         <v>170</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <f aca="false">H10*E10</f>
         <v>15300</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="1" t="n">
         <f aca="false">H10*E10^2</f>
         <v>2601000</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="1" t="n">
         <f aca="false">ABS(J10-$L$17)*H10</f>
         <v>10037.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="str">
+      <c r="B11" s="1" t="str">
         <f aca="false">"[" &amp;C11&amp;";"&amp;D11&amp;"["</f>
         <v>[200;300[</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <f aca="false">H11/G11</f>
         <v>1</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <f aca="false">D11-C11</f>
         <v>100</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="3" t="n">
         <f aca="false">I10+H10</f>
         <v>160</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <f aca="false">(D11-C11)/2 +C11</f>
         <v>250</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <f aca="false">H11*E11</f>
         <v>25000</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="1" t="n">
         <f aca="false">H11*E11^2</f>
         <v>6250000</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="1" t="n">
         <f aca="false">ABS(J11-$L$17)*H11</f>
         <v>3152.77777777778</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="str">
+      <c r="B12" s="1" t="str">
         <f aca="false">"[" &amp;C12&amp;";"&amp;D12&amp;"["</f>
         <v>[300;500[</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <f aca="false">H12/G12</f>
         <v>0.3</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <f aca="false">D12-C12</f>
         <v>200</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="3" t="n">
         <f aca="false">I11+H11</f>
         <v>260</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <f aca="false">(D12-C12)/2 +C12</f>
         <v>400</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <f aca="false">H12*E12</f>
         <v>24000</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="1" t="n">
         <f aca="false">H12*E12^2</f>
         <v>9600000</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="1" t="n">
         <f aca="false">ABS(J12-$L$17)*H12</f>
         <v>7108.33333333333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="str">
+      <c r="B13" s="1" t="str">
         <f aca="false">"[" &amp;C13&amp;";"&amp;D13&amp;"["</f>
         <v>[500;1000[</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>750</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <f aca="false">H13/G13</f>
         <v>0.08</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <f aca="false">D13-C13</f>
         <v>500</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="3" t="n">
         <f aca="false">I12+H12</f>
         <v>320</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <f aca="false">(D13-C13)/2 +C13</f>
         <v>750</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <f aca="false">H13*E13</f>
         <v>30000</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="1" t="n">
         <f aca="false">H13*E13^2</f>
         <v>22500000</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="1" t="n">
         <f aca="false">ABS(J13-$L$17)*H13</f>
         <v>18738.8888888889</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="3" t="n">
         <f aca="false">I13+H13</f>
         <v>360</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <f aca="false">C14-C7</f>
         <v>1000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <f aca="false">SUM(H7:H16)</f>
         <v>360</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="1" t="n">
         <f aca="false">SUM(K7:K13)/360</f>
         <v>281.527777777778</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="M17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17" s="1" t="n">
         <f aca="false">SUM(L7:L13)/I17-L17^2</f>
         <v>36563.638117284</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M18" s="0" t="s">
+      <c r="M18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18" s="1" t="n">
         <f aca="false">N17^(1/2)</f>
         <v>191.216207778744</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M19" s="0" t="s">
+      <c r="M19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19" s="1" t="n">
         <f aca="false">SUM(M7:M13)/I14</f>
         <v>143.595679012346</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="0" t="n">
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="1" t="n">
         <f aca="false">C7</f>
         <v>0</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="1" t="n">
         <f aca="false">C7</f>
         <v>0</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="1" t="n">
         <f aca="false">F7</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="1" t="n">
         <f aca="false">C8</f>
         <v>50</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="1" t="n">
         <f aca="false">F7</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="1" t="n">
         <f aca="false">C8</f>
         <v>50</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="1" t="n">
         <f aca="false">C8</f>
         <v>50</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30" s="1" t="n">
         <f aca="false">F8</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="1" t="n">
         <f aca="false">C9</f>
         <v>100</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="1" t="n">
         <f aca="false">F8</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="1" t="n">
         <f aca="false">C9</f>
         <v>100</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="L32" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K33" s="0" t="n">
+      <c r="K33" s="1" t="n">
         <f aca="false">C9</f>
         <v>100</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="L33" s="1" t="n">
         <f aca="false">F9</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="1" t="n">
         <f aca="false">C10</f>
         <v>140</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34" s="1" t="n">
         <f aca="false">F9</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K35" s="0" t="n">
+      <c r="K35" s="1" t="n">
         <f aca="false">C10</f>
         <v>140</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="L35" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K36" s="0" t="n">
+      <c r="K36" s="1" t="n">
         <f aca="false">C10</f>
         <v>140</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="L36" s="1" t="n">
         <f aca="false">F10</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K37" s="0" t="n">
+      <c r="K37" s="1" t="n">
         <f aca="false">C11</f>
         <v>200</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="L37" s="1" t="n">
         <f aca="false">F10</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K38" s="0" t="n">
+      <c r="K38" s="1" t="n">
         <f aca="false">C11</f>
         <v>200</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="L38" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K39" s="0" t="n">
+      <c r="K39" s="1" t="n">
         <f aca="false">C11</f>
         <v>200</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="L39" s="1" t="n">
         <f aca="false">F11</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K40" s="0" t="n">
+      <c r="K40" s="1" t="n">
         <f aca="false">C12</f>
         <v>300</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="L40" s="1" t="n">
         <f aca="false">F11</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K41" s="0" t="n">
+      <c r="K41" s="1" t="n">
         <f aca="false">C12</f>
         <v>300</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="L41" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K42" s="0" t="n">
+      <c r="K42" s="1" t="n">
         <f aca="false">C12</f>
         <v>300</v>
       </c>
-      <c r="L42" s="0" t="n">
+      <c r="L42" s="1" t="n">
         <f aca="false">F12</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K43" s="0" t="n">
+      <c r="K43" s="1" t="n">
         <f aca="false">C13</f>
         <v>500</v>
       </c>
-      <c r="L43" s="0" t="n">
+      <c r="L43" s="1" t="n">
         <f aca="false">F12</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K44" s="0" t="n">
+      <c r="K44" s="1" t="n">
         <f aca="false">C13</f>
         <v>500</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="L44" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K45" s="0" t="n">
+      <c r="K45" s="1" t="n">
         <f aca="false">C13</f>
         <v>500</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="L45" s="1" t="n">
         <f aca="false">F13</f>
         <v>0.08</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K46" s="0" t="n">
+      <c r="K46" s="1" t="n">
         <f aca="false">C14</f>
         <v>1000</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="L46" s="1" t="n">
         <f aca="false">L45</f>
         <v>0.08</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K47" s="0" t="n">
+      <c r="K47" s="1" t="n">
         <f aca="false">C14</f>
         <v>1000</v>
       </c>
-      <c r="L47" s="0" t="n">
+      <c r="L47" s="1" t="n">
         <v>0</v>
       </c>
     </row>
